--- a/GRUDZIEŃ/rozliczenie zbiorcze.xlsx
+++ b/GRUDZIEŃ/rozliczenie zbiorcze.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="180">
   <si>
     <t>Nr DM</t>
   </si>
@@ -402,6 +402,177 @@
   </si>
   <si>
     <t>Dubois-Pomorska-KomunyParyskiej-Podwale-Kosciuszki-Miernicza-Bosaka-Rybacka</t>
+  </si>
+  <si>
+    <t>MIECZYSŁAW Dudek</t>
+  </si>
+  <si>
+    <t>57-220</t>
+  </si>
+  <si>
+    <t>Wigańcice 72, 57-220 Wigańcice</t>
+  </si>
+  <si>
+    <t>1533.68</t>
+  </si>
+  <si>
+    <t>Dec 31 201</t>
+  </si>
+  <si>
+    <t>3339.06</t>
+  </si>
+  <si>
+    <t>Zdzisław Nowicki</t>
+  </si>
+  <si>
+    <t>56-400</t>
+  </si>
+  <si>
+    <t>Okrężna 1/6 Oleśnica</t>
+  </si>
+  <si>
+    <t>233.10</t>
+  </si>
+  <si>
+    <t>470.11</t>
+  </si>
+  <si>
+    <t>PAWEŁ CHWASTYK</t>
+  </si>
+  <si>
+    <t>55-080</t>
+  </si>
+  <si>
+    <t>PLAC LEGIONÓW 1/15, 50-045 WROCŁAW // NOWA WIEŚ KĄCKA 43, 55-080 NOWA WIEŚ KĄCKA</t>
+  </si>
+  <si>
+    <t>6145979,516172846,601957660,</t>
+  </si>
+  <si>
+    <t>19765.88</t>
+  </si>
+  <si>
+    <t>ARKADIUSZ GŁOMBSKI</t>
+  </si>
+  <si>
+    <t>11 LISTOPADA 22A/4 OLEŚNICA</t>
+  </si>
+  <si>
+    <t>2624.76</t>
+  </si>
+  <si>
+    <t>ZENON KOWALSKI</t>
+  </si>
+  <si>
+    <t>MONIUSZKI 68/8 OLEŚNICA</t>
+  </si>
+  <si>
+    <t>0290673,660290673,660290673,660290673,</t>
+  </si>
+  <si>
+    <t>3437.34</t>
+  </si>
+  <si>
+    <t>Mateusz Gajda</t>
+  </si>
+  <si>
+    <t>Krzywoustego 66a, 56-400 Oleśnica</t>
+  </si>
+  <si>
+    <t>1943.82</t>
+  </si>
+  <si>
+    <t>1525.87</t>
+  </si>
+  <si>
+    <t>2271.09</t>
+  </si>
+  <si>
+    <t>Agnieszka SZYMKOWIAK</t>
+  </si>
+  <si>
+    <t>Księcia Józefa Poniatowskiego 4C/7 Oleśnica</t>
+  </si>
+  <si>
+    <t>1941.57</t>
+  </si>
+  <si>
+    <t>MONIKA ŁUCZAK</t>
+  </si>
+  <si>
+    <t>57-150</t>
+  </si>
+  <si>
+    <t>GRZEGORZÓW 29, 57-150 GRZEGORZÓW</t>
+  </si>
+  <si>
+    <t>3263229,663263229,663263229,663263229,781120934,781120934,781120934,781120934,</t>
+  </si>
+  <si>
+    <t>17957.38</t>
+  </si>
+  <si>
+    <t>May 23 201</t>
+  </si>
+  <si>
+    <t>AGNIESZKA SEMAN</t>
+  </si>
+  <si>
+    <t>STAROZAMKOWY 4/5 OŁAWA</t>
+  </si>
+  <si>
+    <t>8361.52</t>
+  </si>
+  <si>
+    <t>JACEK BARTKOWSKI</t>
+  </si>
+  <si>
+    <t>57-160</t>
+  </si>
+  <si>
+    <t>BOGUSZYCE 9, 57-160 BORÓW</t>
+  </si>
+  <si>
+    <t>2209382,502209382,507079106,507079106,</t>
+  </si>
+  <si>
+    <t>570.23</t>
+  </si>
+  <si>
+    <t>837.96</t>
+  </si>
+  <si>
+    <t>Oct 12 201</t>
+  </si>
+  <si>
+    <t>GRZEGORZ BIGDA</t>
+  </si>
+  <si>
+    <t>55-003</t>
+  </si>
+  <si>
+    <t>WROCŁAWSKA 44, 55-003 RATOWICE</t>
+  </si>
+  <si>
+    <t>667201427,667201427,</t>
+  </si>
+  <si>
+    <t>8702.51</t>
+  </si>
+  <si>
+    <t>PAWEŁ MAZUREK</t>
+  </si>
+  <si>
+    <t>55-330</t>
+  </si>
+  <si>
+    <t>GEN. HALLERA 145/2, 53-201 WROCŁAW // WSPÓLNA 3, 55-330 WILKSZYN</t>
+  </si>
+  <si>
+    <t>1789379,511789379,511789379,</t>
+  </si>
+  <si>
+    <t>259313.89</t>
   </si>
 </sst>
 </file>
@@ -977,10 +1148,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1610,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1903,7 +2074,7 @@
       <c r="I12">
         <v>15</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="20">
         <v>90</v>
       </c>
     </row>
@@ -1932,7 +2103,7 @@
       <c r="I13">
         <v>15</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -1959,7 +2130,7 @@
       <c r="I14">
         <v>15</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -1986,7 +2157,7 @@
       <c r="I15">
         <v>15</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -2013,7 +2184,7 @@
       <c r="I16">
         <v>15</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -2040,7 +2211,7 @@
       <c r="I17">
         <v>15</v>
       </c>
-      <c r="J17" s="19"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -2437,7 +2608,7 @@
       <c r="D32" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="19">
         <v>43454</v>
       </c>
       <c r="H32" t="s">
@@ -2445,6 +2616,478 @@
       </c>
       <c r="I32">
         <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>3256685</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33">
+        <v>1301663</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>3256734</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34">
+        <v>1301663</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>3256762</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>3256764</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2967358</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>3256670</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2966825</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>3256788</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>3256791</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>3256790</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>3256663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2652454</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="15">
+        <v>2628430</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="15">
+        <v>7741531</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2949099</v>
+      </c>
+      <c r="B46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2961650</v>
+      </c>
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" t="s">
+        <v>169</v>
+      </c>
+      <c r="H47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2662172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2663720</v>
+      </c>
+      <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/GRUDZIEŃ/rozliczenie zbiorcze.xlsx
+++ b/GRUDZIEŃ/rozliczenie zbiorcze.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="185">
   <si>
     <t>Nr DM</t>
   </si>
@@ -574,12 +574,27 @@
   <si>
     <t>259313.89</t>
   </si>
+  <si>
+    <t>wykonano 07.12</t>
+  </si>
+  <si>
+    <t>wykonano 14.12</t>
+  </si>
+  <si>
+    <t>wykonano 12.12</t>
+  </si>
+  <si>
+    <t>wykonano 13.12</t>
+  </si>
+  <si>
+    <t>wykonano 20 i 21.12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,6 +771,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1098,7 +1121,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1152,6 +1175,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="19" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1781,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1798,7 +1829,7 @@
     <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -1818,8 +1849,11 @@
       <c r="I1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="O1" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
@@ -1837,8 +1871,12 @@
       <c r="I2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K2" s="25"/>
+      <c r="O2" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
@@ -1855,8 +1893,12 @@
       <c r="I3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="26"/>
+      <c r="O3" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -1872,8 +1914,12 @@
       <c r="I4">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="21.5" x14ac:dyDescent="0.35">
+      <c r="K4" s="27"/>
+      <c r="O4" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>3246157</v>
       </c>
@@ -1898,8 +1944,12 @@
       <c r="I5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="K5" s="25"/>
+      <c r="O5" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1915,8 +1965,9 @@
       <c r="I6">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>3246243</v>
       </c>
@@ -1941,8 +1992,9 @@
       <c r="I7">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>3246146</v>
       </c>
@@ -1970,8 +2022,9 @@
       <c r="J8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>3246220</v>
       </c>
@@ -1996,8 +2049,9 @@
       <c r="I9">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>3246125</v>
       </c>
@@ -2022,8 +2076,9 @@
       <c r="I10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>3240349</v>
       </c>
@@ -2048,8 +2103,9 @@
       <c r="I11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3239668</v>
       </c>
@@ -2077,8 +2133,9 @@
       <c r="J12" s="20">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3239689</v>
       </c>
@@ -2104,8 +2161,9 @@
         <v>15</v>
       </c>
       <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3239666</v>
       </c>
@@ -2131,8 +2189,9 @@
         <v>15</v>
       </c>
       <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3239664</v>
       </c>
@@ -2158,8 +2217,9 @@
         <v>15</v>
       </c>
       <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3239667</v>
       </c>
@@ -2185,6 +2245,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="20"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -2212,6 +2273,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="20"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -2244,6 +2306,7 @@
       <c r="J18" t="s">
         <v>83</v>
       </c>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -2273,8 +2336,9 @@
       <c r="I19">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2627866</v>
       </c>
@@ -2299,8 +2363,9 @@
       <c r="I20">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2382326</v>
       </c>
@@ -2328,6 +2393,7 @@
       <c r="I21">
         <v>13.4</v>
       </c>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -2354,6 +2420,7 @@
       <c r="I22">
         <v>13.4</v>
       </c>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -2380,6 +2447,7 @@
       <c r="I23">
         <v>6.7</v>
       </c>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -2406,6 +2474,7 @@
       <c r="I24">
         <v>6.7</v>
       </c>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -2432,6 +2501,7 @@
       <c r="I25">
         <v>13.4</v>
       </c>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -2458,6 +2528,7 @@
       <c r="I26">
         <v>13.4</v>
       </c>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
@@ -2487,6 +2558,7 @@
       <c r="I27">
         <v>13.4</v>
       </c>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -2516,6 +2588,7 @@
       <c r="I28">
         <v>13.4</v>
       </c>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -2542,7 +2615,7 @@
       <c r="I29">
         <v>13.4</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="23" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2571,6 +2644,7 @@
       <c r="I30">
         <v>6.7</v>
       </c>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
@@ -2597,6 +2671,7 @@
       <c r="I31">
         <v>6.7</v>
       </c>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -2617,8 +2692,9 @@
       <c r="I32">
         <v>500</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3256685</v>
       </c>
@@ -2647,7 +2723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3256734</v>
       </c>
@@ -2676,59 +2752,59 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
         <v>3256762</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I35">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
         <v>3256764</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I36">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2967358</v>
       </c>
@@ -2756,167 +2832,168 @@
       <c r="I37">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15">
         <v>3256670</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I38">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39">
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15">
         <v>2966825</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I39">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40">
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15">
         <v>3256788</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I40">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41">
+      <c r="I40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
         <v>3256791</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I41">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="15">
         <v>3256790</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I42">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="I42" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="15">
         <v>3256663</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I43">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2652454</v>
       </c>
@@ -2945,7 +3022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <v>2628430</v>
       </c>
@@ -2974,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2949099</v>
       </c>
@@ -3003,7 +3080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2961650</v>
       </c>
@@ -3032,7 +3109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2662172</v>
       </c>
